--- a/biology/Zoologie/Artoriopsis_expolita/Artoriopsis_expolita.xlsx
+++ b/biology/Zoologie/Artoriopsis_expolita/Artoriopsis_expolita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Artoriopsis expolita est une espèce d'araignées aranéomorphes de la famille des Lycosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Artoriopsis expolita est une espèce d'araignées aranéomorphes de la famille des Lycosidae.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Australie et en Nouvelle-Zélande[1].
-En Australie, elle a été observée dans le Sud-Est du Queensland, en Nouvelle-Galles du Sud, dans le Territoire de la capitale australienne, au Victoria, dans le Sud-Est de l'Australie-Méridionale, dans le Sud-Ouest de l'Australie-Occidentale et en Tasmanie[2].
-En Nouvelle-Zélande, un seul mâle a été observé dans le Shakespear Regional Park (en)[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Australie et en Nouvelle-Zélande.
+En Australie, elle a été observée dans le Sud-Est du Queensland, en Nouvelle-Galles du Sud, dans le Territoire de la capitale australienne, au Victoria, dans le Sud-Est de l'Australie-Méridionale, dans le Sud-Ouest de l'Australie-Occidentale et en Tasmanie.
+En Nouvelle-Zélande, un seul mâle a été observé dans le Shakespear Regional Park (en)
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 4,50 à 10,50 mm et les femelles de 5,10 à 10,05 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 4,50 à 10,50 mm et les femelles de 5,10 à 10,05 mm.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Koch, 1877 : Die Arachniden Australiens. Nürnberg, vol. 1, p. 889-968 (texte intégral).</t>
         </is>
